--- a/biology/Médecine/Léon_Gosselin/Léon_Gosselin.xlsx
+++ b/biology/Médecine/Léon_Gosselin/Léon_Gosselin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Gosselin</t>
+          <t>Léon_Gosselin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Athanase Gosselin, né le 16 juin 1815 à Paris et mort le 30 avril 1887 dans la même ville, est un médecin, anatomiste, urologue, orthopédiste, pédagogue, physiologiste et chirurgien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Gosselin</t>
+          <t>Léon_Gosselin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Neveu de l'abbé Jean-Edme-Auguste Gosselin, Léon Athanase Gosselin est le fils du négociant François Claude Gosselin et d'Anne Justine Jacquemin.
 Docteur en médecine, externe en médecine en 1835 puis Interne en 1836, il est aide d’anatomie de la Faculté de médecine en 1840, puis prosecteur de la Faculté en 1842. En 1843, il réussit son doctorat en médecine avec sa thèse de doctorat : "Études sur les fibro-cartilages inter-articulaires". Il réussit l'agrégation l'année suivante le 26 juin 1844, avec sa thèse d’agrégation en chirurgie : "De l’étranglement dans les hernies".
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Gosselin</t>
+          <t>Léon_Gosselin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Distinctions et hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'honneur (1870)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur (1870)
 Son portrait sur plaquette bronze a été réalisé en 1897 par le sculpteur Jules Chaplain.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Gosselin</t>
+          <t>Léon_Gosselin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Publications à l'Académie de médecine :
 1857 : Traité pratique des maladies du testicule ;
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Gosselin</t>
+          <t>Léon_Gosselin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Léon Athanase Gosselin était membre de plusieurs sociétés savantes.
 En 1837, il devint membre de la Société anatomique de Paris, membre titulaire le 19 juin 1838, archiviste du 8 juillet 1840 au 9 février 1841, secrétaire en 1841, Vice-président en 1842 et membre honoraire le 24 mai 1843.
